--- a/DRE/IPT_ACRM_DRE_Indice_150512.xlsx
+++ b/DRE/IPT_ACRM_DRE_Indice_150512.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="7260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="7260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="2" r:id="rId1"/>
@@ -1560,7 +1560,7 @@
   </sheetPr>
   <dimension ref="A1:AI190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
@@ -8957,8 +8957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
